--- a/biology/Zoologie/Gerbillurus_setzeri/Gerbillurus_setzeri.xlsx
+++ b/biology/Zoologie/Gerbillurus_setzeri/Gerbillurus_setzeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Gerbille de Setzer[1], Gerbillurus setzeri ou Gerbillurus (Gerbillurus) setzeri selon les classifications, est une espèce de gerbille. Ce sont des rongeurs de la famille des Muridae, localisés en Namibie et Afrique du Sud.
+La Gerbille de Setzer, Gerbillurus setzeri ou Gerbillurus (Gerbillurus) setzeri selon les classifications, est une espèce de gerbille. Ce sont des rongeurs de la famille des Muridae, localisés en Namibie et Afrique du Sud.
 </t>
         </is>
       </c>
